--- a/PFOA inhalation Rat/Data/Dzierlenga_tissue_male_ORAL_2021.xlsx
+++ b/PFOA inhalation Rat/Data/Dzierlenga_tissue_male_ORAL_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9751E289-372C-4493-8743-12E4B7D80773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B023641-B836-46ED-B1A3-A21DC1B83909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,16 +56,19 @@
     <t>oral</t>
   </si>
   <si>
-    <t>Concentration_microg_per_g_organ</t>
+    <t>Kidney</t>
   </si>
   <si>
-    <t>Kidney</t>
+    <t>Concentration_microM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -557,7 +560,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -918,7 +921,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,6 +931,7 @@
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -938,7 +942,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -955,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>47.040004263521006</v>
+        <v>113.60399030000001</v>
       </c>
       <c r="D2" s="1">
         <v>12</v>
@@ -972,7 +976,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>57.149897715614998</v>
+        <v>138.01989449999999</v>
       </c>
       <c r="D3" s="1">
         <v>12</v>
@@ -989,7 +993,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>62.361468282476991</v>
+        <v>150.60610109999999</v>
       </c>
       <c r="D4" s="1">
         <v>12</v>
@@ -1006,7 +1010,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="3">
-        <v>62.781513892275001</v>
+        <v>151.6205325</v>
       </c>
       <c r="D5" s="1">
         <v>12</v>
@@ -1023,7 +1027,7 @@
         <v>192</v>
       </c>
       <c r="C6" s="3">
-        <v>48.645717331201993</v>
+        <v>117.4818686</v>
       </c>
       <c r="D6" s="1">
         <v>12</v>
@@ -1040,7 +1044,7 @@
         <v>528</v>
       </c>
       <c r="C7" s="3">
-        <v>18.878430898524599</v>
+        <v>45.592365780000002</v>
       </c>
       <c r="D7" s="1">
         <v>12</v>
@@ -1057,7 +1061,7 @@
         <v>864</v>
       </c>
       <c r="C8" s="3">
-        <v>4.8320248580556999</v>
+        <v>11.66958451</v>
       </c>
       <c r="D8" s="1">
         <v>12</v>
@@ -1068,13 +1072,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="3">
-        <v>36.694048634880005</v>
+        <v>88.617984000000007</v>
       </c>
       <c r="D9" s="1">
         <v>12</v>
@@ -1085,13 +1089,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>29.800024661910999</v>
+        <v>71.968567300000004</v>
       </c>
       <c r="D10" s="1">
         <v>12</v>
@@ -1102,13 +1106,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <v>24</v>
       </c>
       <c r="C11" s="3">
-        <v>29.402598917761399</v>
+        <v>71.008764020000001</v>
       </c>
       <c r="D11" s="1">
         <v>12</v>
@@ -1119,13 +1123,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
         <v>192</v>
       </c>
       <c r="C12" s="3">
-        <v>18.378247125006201</v>
+        <v>44.38439666</v>
       </c>
       <c r="D12" s="1">
         <v>12</v>
@@ -1136,13 +1140,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
         <v>528</v>
       </c>
       <c r="C13" s="3">
-        <v>5.6387722461989007</v>
+        <v>13.617920270000001</v>
       </c>
       <c r="D13" s="1">
         <v>12</v>
@@ -1153,13 +1157,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
         <v>864</v>
       </c>
       <c r="C14" s="3">
-        <v>0.79944400864703002</v>
+        <v>1.930697729</v>
       </c>
       <c r="D14" s="1">
         <v>12</v>
@@ -1176,7 +1180,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>0.99769538811286984</v>
+        <v>2.4094848409999998</v>
       </c>
       <c r="D15" s="1">
         <v>12</v>
@@ -1193,7 +1197,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>1.2121212626703901</v>
+        <v>2.9273341770000001</v>
       </c>
       <c r="D16" s="1">
         <v>12</v>
@@ -1210,7 +1214,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="3">
-        <v>1.11082384783565</v>
+        <v>2.6826957949999999</v>
       </c>
       <c r="D17" s="1">
         <v>12</v>
@@ -1227,7 +1231,7 @@
         <v>192</v>
       </c>
       <c r="C18" s="3">
-        <v>0.53799270935490995</v>
+        <v>1.2992796129999999</v>
       </c>
       <c r="D18" s="1">
         <v>12</v>
